--- a/MEDIA/_ 2282__會計科目餘額明細.xlsx
+++ b/MEDIA/_ 2282__會計科目餘額明細.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,7 +356,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>森邦(股)會計科目餘額明細(_ 2282__2020-10-01~2020-10-29)</t>
+          <t>森邦(股)會計科目餘額明細(_ 2282__2020-10-01~2020-11-04)</t>
         </is>
       </c>
     </row>
@@ -442,17 +442,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>沖#107042-代扣7月薪獎金-補充保費         </t>
+          <t>沖#108320-溫哲彥代扣巨群10%-          </t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2056</v>
+        <v>19000</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1250125</v>
+        <v>1233181</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -483,17 +483,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>沖#107061-代扣108年度-現金股利-補充保費    </t>
+          <t>沖#107042-代扣7月薪獎金-補充保費         </t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>136861</v>
+        <v>2056</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1113264</v>
+        <v>1231125</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -524,17 +524,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>沖#107125-董監事酬勞-毛明宇-兼職補充保費     </t>
+          <t>沖#108370代扣8月薪所稅               </t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1528</v>
+        <v>110070</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1111736</v>
+        <v>1121055</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -565,17 +565,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>沖#108370代扣8月薪所稅               </t>
+          <t>沖#107061-代扣108年度-現金股利-補充保費    </t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>110070</v>
+        <v>136861</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1001666</v>
+        <v>984194</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -606,11 +606,11 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>沖#108320-溫哲彥代扣巨群10%-          </t>
+          <t>沖#107125-董監事酬勞-毛明宇-兼職補充保費     </t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>19000</v>
+        <v>1528</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -688,17 +688,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>代扣109/10月黃嘉琪-二代健保1.91%=$434   </t>
+          <t>代扣109/10月黃嘉琪-代扣10%=$2270      </t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-434</v>
+        <v>-2270</v>
       </c>
       <c r="G10" t="n">
-        <v>855600</v>
+        <v>857436</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -729,14 +729,14 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>代扣109/10月黃嘉琪-代扣10%=$2270      </t>
+          <t>代扣109/10月黃嘉琪-二代健保1.91%=$434   </t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-2270</v>
+        <v>-434</v>
       </c>
       <c r="G11" t="n">
         <v>857870</v>
@@ -788,6 +788,498 @@
         </is>
       </c>
       <c r="I12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>20201031</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2282  .        </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>追溯健保-9月范程証眷屬                  </t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>490</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>868936</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>110988</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>20201031</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2282  .        </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>追溯健保-9月吳承哲眷屬                  </t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>537</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>868399</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>110988</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>20201031</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2282  .        </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>內科-孟欣怡健保335+1058-已追退          </t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>1393</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>867006</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>110988</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>20201031</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2282  .        </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>沖#109622-8月健保-黃宇浩             </t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>469</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>866537</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>110988</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>20201031</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2282  .        </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>沖#109601-代扣9月薪-健保費            </t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>118882</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>747655</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>110988</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>20201031</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2282  .        </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>沖#109601-代扣9月薪-勞保費            </t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>95361</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>652294</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>110988</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>20201031</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2282  .        </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>代扣10月份:補充保費                   </t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-7086</v>
+      </c>
+      <c r="G19" t="n">
+        <v>659380</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>110964</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>20201031</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2282  .        </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>代扣10月份:薪所稅                    </t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-114788</v>
+      </c>
+      <c r="G20" t="n">
+        <v>774168</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>110964</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20201031</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2282  .        </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>代扣10月份:自提勞退                   </t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-30072</v>
+      </c>
+      <c r="G21" t="n">
+        <v>804240</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>110964</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>20201031</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2282  .        </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>沖#109601-代扣9月薪-自提勞退           </t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>30072</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>774168</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>110988</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>20201031</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2282  .        </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>代扣10月份:勞保費                    </t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-97490</v>
+      </c>
+      <c r="G23" t="n">
+        <v>871658</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>110964</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>20201031</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2282  .        </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>代扣10月份:健保費                    </t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-122464</v>
+      </c>
+      <c r="G24" t="n">
+        <v>994122</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>110964</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/MEDIA/_ 2282__會計科目餘額明細.xlsx
+++ b/MEDIA/_ 2282__會計科目餘額明細.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,7 +356,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>森邦(股)會計科目餘額明細(_ 2282__2020-10-01~2020-11-04)</t>
+          <t>森邦(股)會計科目餘額明細(_ 2282__2020-11-01~2020-12-05)</t>
         </is>
       </c>
     </row>
@@ -419,7 +419,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>1252181</v>
+        <v>994122</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -427,7 +427,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20201106</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -442,21 +442,21 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>沖#108320-溫哲彥代扣巨群10%-          </t>
+          <t>沖#109601代扣9月薪所稅               </t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>19000</v>
+        <v>115020</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1233181</v>
+        <v>879102</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>109717</t>
+          <t>110989</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -468,7 +468,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20201106</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -483,21 +483,21 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>沖#107042-代扣7月薪獎金-補充保費         </t>
+          <t>沖#109601-代扣9月薪獎金-補充保費9/25發    </t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2056</v>
+        <v>33324</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1231125</v>
+        <v>845778</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>109717</t>
+          <t>110989</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -509,7 +509,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20201106</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -524,21 +524,21 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>沖#108370代扣8月薪所稅               </t>
+          <t>沖#108370-代扣8月薪獎金-補充保費         </t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>110070</v>
+        <v>6587</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1121055</v>
+        <v>839191</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>109717</t>
+          <t>110989</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -550,7 +550,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20201106</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -565,21 +565,21 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>沖#107061-代扣108年度-現金股利-補充保費    </t>
+          <t>沖#110131-呂煌祺建築師代扣10%稅         </t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>136861</v>
+        <v>11556</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>984194</v>
+        <v>827635</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>109717</t>
+          <t>110989</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -591,7 +591,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20201106</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -606,21 +606,21 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>沖#107125-董監事酬勞-毛明宇-兼職補充保費     </t>
+          <t>沖#110486-代扣109/10黃嘉琪租金10%稅    </t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1528</v>
+        <v>2270</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>982666</v>
+        <v>825365</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>109717</t>
+          <t>110989</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -632,7 +632,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -647,21 +647,21 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>沖#109601-代扣9月獎金-所得稅           </t>
+          <t>沖#110988-內科-孟欣怡健保335+1058-已追退 </t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>127500</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>-1393</v>
       </c>
       <c r="G9" t="n">
-        <v>855166</v>
+        <v>826758</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>109717</t>
+          <t>112241</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -673,7 +673,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -688,21 +688,21 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>代扣109/10月黃嘉琪-代扣10%=$2270      </t>
+          <t>耿冀媛健保-眷屬減免                    </t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-2270</v>
+        <v>-712</v>
       </c>
       <c r="G10" t="n">
-        <v>857436</v>
+        <v>827470</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>110486</t>
+          <t>112241</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -714,7 +714,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20201015</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -729,21 +729,21 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>代扣109/10月黃嘉琪-二代健保1.91%=$434   </t>
+          <t>強制扣薪-王坤杰                      </t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-434</v>
+        <v>-5150</v>
       </c>
       <c r="G11" t="n">
-        <v>857870</v>
+        <v>832620</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>110486</t>
+          <t>112292</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -755,7 +755,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20201026</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -770,21 +770,21 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>呂煌祺建築師事務所-(全)設計費代扣10%稅款-尾款    </t>
+          <t>代扣10月份:勞保費                    </t>
         </is>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-11556</v>
+        <v>-98916</v>
       </c>
       <c r="G12" t="n">
-        <v>869426</v>
+        <v>931536</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>110131</t>
+          <t>112292</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20201031</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -811,21 +811,21 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>追溯健保-9月范程証眷屬                  </t>
+          <t>代扣10月份:健保費                    </t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>490</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-124171</v>
       </c>
       <c r="G13" t="n">
-        <v>868936</v>
+        <v>1055707</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>110988</t>
+          <t>112292</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -837,7 +837,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20201031</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -852,21 +852,21 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>追溯健保-9月吳承哲眷屬                  </t>
+          <t>代扣10月份:自提勞退                   </t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>537</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-30072</v>
       </c>
       <c r="G14" t="n">
-        <v>868399</v>
+        <v>1085779</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>110988</t>
+          <t>112292</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -878,7 +878,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20201031</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -893,21 +893,21 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>內科-孟欣怡健保335+1058-已追退          </t>
+          <t>代扣10月份:所得稅                    </t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1393</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>-103380</v>
       </c>
       <c r="G15" t="n">
-        <v>867006</v>
+        <v>1189159</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>110988</t>
+          <t>112292</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -919,7 +919,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20201031</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -934,21 +934,21 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>沖#109622-8月健保-黃宇浩             </t>
+          <t>沖#110964-代扣10月份:自提勞退          </t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>469</v>
+        <v>30072</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>866537</v>
+        <v>1159087</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>110988</t>
+          <t>112241</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -960,7 +960,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20201031</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -975,21 +975,21 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>沖#109601-代扣9月薪-健保費            </t>
+          <t>代扣11月薪-補充保費                   </t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>118882</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-2397</v>
       </c>
       <c r="G17" t="n">
-        <v>747655</v>
+        <v>1161484</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>110988</t>
+          <t>112292</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1001,7 +1001,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20201031</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1016,21 +1016,21 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>沖#109601-代扣9月薪-勞保費            </t>
+          <t>補扣眷屬健保費-吳承哲                   </t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>95361</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>-537</v>
       </c>
       <c r="G18" t="n">
-        <v>652294</v>
+        <v>1162021</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>110988</t>
+          <t>112292</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1042,7 +1042,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20201031</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1057,21 +1057,21 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>代扣10月份:補充保費                   </t>
+          <t>沖#110964-代扣10月份:健保費           </t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>122464</v>
       </c>
       <c r="F19" t="n">
-        <v>-7086</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>659380</v>
+        <v>1039557</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>110964</t>
+          <t>112241</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1083,7 +1083,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20201031</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1098,21 +1098,21 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>代扣10月份:薪所稅                    </t>
+          <t>沖#110964代扣10月份:勞保費            </t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>97490</v>
       </c>
       <c r="F20" t="n">
-        <v>-114788</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>774168</v>
+        <v>942067</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>110964</t>
+          <t>112241</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1124,7 +1124,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20201031</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1139,21 +1139,21 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>代扣10月份:自提勞退                   </t>
+          <t>蔡秋玲-森邦廠房一期廠保存登記代書費-代扣10%-陳妍淑  </t>
         </is>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>-30072</v>
+        <v>-1400</v>
       </c>
       <c r="G21" t="n">
-        <v>804240</v>
+        <v>943467</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>110964</t>
+          <t>111683</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1165,7 +1165,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20201031</t>
+          <t>20201130</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1180,106 +1180,24 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>沖#109601-代扣9月薪-自提勞退           </t>
+          <t>補扣眷屬健保費-范程証                   </t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>30072</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>-490</v>
       </c>
       <c r="G22" t="n">
-        <v>774168</v>
+        <v>943957</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>110988</t>
+          <t>112292</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>20201031</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2282  .        </t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>代扣10月份:勞保費                    </t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>-97490</v>
-      </c>
-      <c r="G23" t="n">
-        <v>871658</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>110964</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>20201031</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2282  .        </t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>代扣10月份:健保費                    </t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>-122464</v>
-      </c>
-      <c r="G24" t="n">
-        <v>994122</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>110964</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
         <is>
           <t>0</t>
         </is>
